--- a/Data/Processed/Angiosperms/missing_powo_ipni/Humiriaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Humiriaceae.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ciencia (Mexico) 23: 137. 1964 </t>
+          <t>Ciencia (Mexico) 23: 137. 1964</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Paraense Hist. Nat. Ethnogr. 2(4): 489. 1898 [dt. 1898; publ. 1899?] </t>
+          <t>Bol. Mus. Paraense Hist. Nat. Ethnogr. 2(4): 489. 1898 [dt. 1898; publ. 1899?]</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arq. Inst. Biol. Veg. 1(3): 206. 1935 [Aug 1935] </t>
+          <t>Arq. Inst. Biol. Veg. 1(3): 206. 1935 [Aug 1935]</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Goeldi Hist. Nat. Ethnogr. 6: 83. 1910 </t>
+          <t>Bol. Mus. Goeldi Hist. Nat. Ethnogr. 6: 83. 1910</t>
         </is>
       </c>
       <c r="J27" t="b">
